--- a/Excel/COURSE_BASED_ISSUES.xlsx
+++ b/Excel/COURSE_BASED_ISSUES.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Course Code: EDC111</t>
   </si>
   <si>
-    <t xml:space="preserve">Course Title: </t>
+    <t>Course Title: METHODS OF TEACHING IN IT</t>
   </si>
   <si>
     <t>Index Number</t>
@@ -38,28 +38,76 @@
     <t>Student Issue Date</t>
   </si>
   <si>
+    <t>434ty45665</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:17:16</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:14:08</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:15:10</t>
+  </si>
+  <si>
     <t>NOT IN PORTAL</t>
   </si>
   <si>
-    <t>2023-09-19 04:37:29</t>
+    <t>2023-09-20 05:17:28</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:15:59</t>
+  </si>
+  <si>
+    <t>OTHER: ererer</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:17:48</t>
+  </si>
+  <si>
+    <t>OTHER: erererer</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:16:58</t>
   </si>
   <si>
     <t>Course Code: GDP122</t>
   </si>
   <si>
-    <t>OTHER</t>
+    <t>Course Title: AFRICAN STUDIES HIV AND OTHER STI</t>
+  </si>
+  <si>
+    <t>OTHER: 333334</t>
+  </si>
+  <si>
+    <t>OTHER: errererer</t>
   </si>
   <si>
     <t>Course Code: ITC111</t>
   </si>
   <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>2023-09-19 03:39:01</t>
+    <t>Course Title: DATABASE CONCEPTS AND DESIGN</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:17:27</t>
+  </si>
+  <si>
+    <t>OTHER: ewerer</t>
+  </si>
+  <si>
+    <t>2023-09-20 05:17:47</t>
   </si>
   <si>
     <t>Course Code: ITC221</t>
+  </si>
+  <si>
+    <t>Course Title: INFORMATION TECHNOLOGY TOOLS IN EDUCATION</t>
+  </si>
+  <si>
+    <t>OTHER: resit</t>
   </si>
 </sst>
 </file>
@@ -422,19 +470,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="33.849" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.422" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="95.834" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -464,130 +512,554 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5">
-        <v>5191040305</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>51910403053</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>519104030534</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
+      <c r="B8">
+        <v>2222222224343</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
+      <c r="B9">
+        <v>4444444433</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10">
-        <v>5191040305</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>5454565768</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>354545454</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16">
+        <v>354545454</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18">
+        <v>2222222224343</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19">
+        <v>51910403053</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15">
-        <v>5191040305</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20">
-        <v>5191040305</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>519104030534</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21">
+        <v>4444444433</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22">
+        <v>5454565768</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28">
+        <v>4444444433</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>2222222224343</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30">
+        <v>51910403053</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <v>519104030534</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32">
+        <v>354545454</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33">
+        <v>5454565768</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39">
+        <v>4444444433</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40">
+        <v>2222222224343</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41">
+        <v>354545454</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42">
+        <v>5454565768</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43">
+        <v>51910403053</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44">
+        <v>519104030534</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
